--- a/biology/Médecine/Code_de_la_santé_publique/Code_de_la_santé_publique.xlsx
+++ b/biology/Médecine/Code_de_la_santé_publique/Code_de_la_santé_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Code_de_la_sant%C3%A9_publique</t>
+          <t>Code_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le code de la santé publique (CSP) est un code juridique français, créé en 1953 et refondu par ordonnance en 2000 pour la partie législative et par cinq importants décrets pour la partie réglementaire entre 2003 et 2005. Sa publication a entraîné l'abrogation simultanée de plusieurs centaines de textes désormais codifiés. Il est emblématique du renouveau de la codification française depuis la mise en place de la Commission supérieure de codification en 1989.
 Le Code de la santé publique contient notamment le Code de déontologie médicale que doivent respecter les professionnels de la santé lors de l'administration des soins de santé en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Code_de_la_sant%C3%A9_publique</t>
+          <t>Code_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Réforme en 2010</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce « code de grande ampleur » (sa publication récente a occupé 804 pages au Journal Officiel et il compte plus de 10 000 articles) détermine matériellement le champ du droit de la santé publique.
 Il comporte en six parties, elles-mêmes divisées en livres, titres, chapitres et articles :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Code_de_la_sant%C3%A9_publique</t>
+          <t>Code_de_la_santé_publique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Accès public</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le code est accessible gratuitement sur Légifrance qui met à disposition une édition constamment mise à jour, indispensable pour vérifier la dernière version d'un article. Une édition papier, permettant une approche plus générale, est aussi publiée périodiquement par les Journaux Officiels.
 Plusieurs éditeurs privés proposent des éditions utiles du Code de la santé publique.
